--- a/Data/PreprocessedData/MasterSynonymCorrections.xlsx
+++ b/Data/PreprocessedData/MasterSynonymCorrections.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="19005" windowHeight="12045" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="19005" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MasterSynonymCorrections" sheetId="1" r:id="rId1"/>
     <sheet name="seasonallyapparent" sheetId="2" r:id="rId2"/>
+    <sheet name="NewSpecies2010" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="918">
   <si>
     <t>OldGenus</t>
   </si>
@@ -2677,13 +2678,139 @@
   </si>
   <si>
     <t>Syncharpha</t>
+  </si>
+  <si>
+    <t>GENUS</t>
+  </si>
+  <si>
+    <t>SPECIES</t>
+  </si>
+  <si>
+    <t>FAMILY</t>
+  </si>
+  <si>
+    <t>GROWTHFORM</t>
+  </si>
+  <si>
+    <t>RESPROUTING</t>
+  </si>
+  <si>
+    <t>DISPERSAL</t>
+  </si>
+  <si>
+    <t>AIZOACEAE</t>
+  </si>
+  <si>
+    <t>ANACARDIACEAE</t>
+  </si>
+  <si>
+    <t>APIACEAE</t>
+  </si>
+  <si>
+    <t>ASPARAGACEAE</t>
+  </si>
+  <si>
+    <t>ASPHODELACEAE</t>
+  </si>
+  <si>
+    <t>ASTERACEAE</t>
+  </si>
+  <si>
+    <t>CELASTRACEAE</t>
+  </si>
+  <si>
+    <t>CHENOPODIACEAE</t>
+  </si>
+  <si>
+    <t>CRASSULACEAE</t>
+  </si>
+  <si>
+    <t>CYPERACEAE</t>
+  </si>
+  <si>
+    <t>ERICACEAE</t>
+  </si>
+  <si>
+    <t>EUPHORBIACEAE</t>
+  </si>
+  <si>
+    <t>FABACEAE</t>
+  </si>
+  <si>
+    <t>GENTIANACEAE</t>
+  </si>
+  <si>
+    <t>GERANIACEAE</t>
+  </si>
+  <si>
+    <t>HAEMODORACEAE</t>
+  </si>
+  <si>
+    <t>IRIDACEAE</t>
+  </si>
+  <si>
+    <t>JUNCACEAE</t>
+  </si>
+  <si>
+    <t>LOBELIACEAE</t>
+  </si>
+  <si>
+    <t>MALVACEAE</t>
+  </si>
+  <si>
+    <t>MESEMBRYANTHEMACEAE</t>
+  </si>
+  <si>
+    <t>MYRICACEAE</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>POACEAE</t>
+  </si>
+  <si>
+    <t>POLYGALACEAE</t>
+  </si>
+  <si>
+    <t>PROTEACEAE</t>
+  </si>
+  <si>
+    <t>RESTIONACEAE</t>
+  </si>
+  <si>
+    <t>RHAMNACEAE</t>
+  </si>
+  <si>
+    <t>RUBIACEAE</t>
+  </si>
+  <si>
+    <t>RUTACEAE</t>
+  </si>
+  <si>
+    <t>SANTALACEAE</t>
+  </si>
+  <si>
+    <t>SCROPHULARIACEAE</t>
+  </si>
+  <si>
+    <t>SOLANACEAE</t>
+  </si>
+  <si>
+    <t>VISCACEAE</t>
+  </si>
+  <si>
+    <t>ZYGOPHYLLACEAE</t>
+  </si>
+  <si>
+    <t>THYMELAEACEAE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3193,7 +3320,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3203,6 +3330,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3250,6 +3379,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3328,6 +3462,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3362,6 +3497,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3537,14 +3673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D671"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D685"/>
   <sheetViews>
-    <sheetView topLeftCell="A644" workbookViewId="0">
-      <selection activeCell="B671" sqref="B671"/>
+    <sheetView topLeftCell="A659" workbookViewId="0">
+      <selection activeCell="C659" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
@@ -3552,7 +3688,7 @@
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3566,7 +3702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3580,7 +3716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3594,7 +3730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3608,7 +3744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3622,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3636,7 +3772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3650,7 +3786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3664,7 +3800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3678,7 +3814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3692,7 +3828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3706,7 +3842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3720,7 +3856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3734,7 +3870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3748,7 +3884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3762,7 +3898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3776,7 +3912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3790,7 +3926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -3804,7 +3940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3818,7 +3954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3832,7 +3968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -3846,7 +3982,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3860,7 +3996,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -3874,7 +4010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -3888,7 +4024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -3902,7 +4038,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -3916,7 +4052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -3930,7 +4066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -3944,7 +4080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -3958,7 +4094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -3972,7 +4108,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -3986,7 +4122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -4000,7 +4136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -4014,7 +4150,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -4028,7 +4164,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -4042,7 +4178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -4056,7 +4192,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -4070,7 +4206,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -4084,7 +4220,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -4098,7 +4234,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -4112,7 +4248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -4126,7 +4262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -4140,7 +4276,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -4154,7 +4290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -4168,7 +4304,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -4182,7 +4318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -4196,7 +4332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -4210,7 +4346,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -4224,7 +4360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -4238,7 +4374,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -4252,7 +4388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -4266,7 +4402,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -4280,7 +4416,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -4294,7 +4430,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -4308,7 +4444,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -4322,7 +4458,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -4336,7 +4472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -4350,7 +4486,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -4364,7 +4500,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -4378,7 +4514,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -4392,7 +4528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -4406,7 +4542,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -4420,7 +4556,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -4434,7 +4570,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -4448,7 +4584,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -4462,7 +4598,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -4476,7 +4612,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -4490,7 +4626,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -4504,7 +4640,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -4518,7 +4654,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -4532,7 +4668,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -4546,7 +4682,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -4560,7 +4696,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -4574,7 +4710,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -4588,7 +4724,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>106</v>
       </c>
@@ -4602,7 +4738,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -4616,7 +4752,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -4630,7 +4766,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -4644,7 +4780,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -4658,7 +4794,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>114</v>
       </c>
@@ -4672,7 +4808,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -4686,7 +4822,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>119</v>
       </c>
@@ -4700,7 +4836,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>119</v>
       </c>
@@ -4714,7 +4850,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -4728,7 +4864,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>119</v>
       </c>
@@ -4742,7 +4878,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>125</v>
       </c>
@@ -4756,7 +4892,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -4770,7 +4906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -4784,7 +4920,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>130</v>
       </c>
@@ -4798,7 +4934,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>133</v>
       </c>
@@ -4812,7 +4948,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>133</v>
       </c>
@@ -4826,7 +4962,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>136</v>
       </c>
@@ -4840,7 +4976,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>136</v>
       </c>
@@ -4854,7 +4990,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>141</v>
       </c>
@@ -4868,7 +5004,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>143</v>
       </c>
@@ -4882,7 +5018,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>146</v>
       </c>
@@ -4896,7 +5032,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>146</v>
       </c>
@@ -4910,7 +5046,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>146</v>
       </c>
@@ -4924,7 +5060,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>146</v>
       </c>
@@ -4938,7 +5074,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>151</v>
       </c>
@@ -4952,7 +5088,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>152</v>
       </c>
@@ -4966,7 +5102,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>152</v>
       </c>
@@ -4980,7 +5116,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>152</v>
       </c>
@@ -4994,7 +5130,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>156</v>
       </c>
@@ -5008,7 +5144,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>156</v>
       </c>
@@ -5022,7 +5158,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>156</v>
       </c>
@@ -5036,7 +5172,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>156</v>
       </c>
@@ -5050,7 +5186,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>165</v>
       </c>
@@ -5064,7 +5200,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>167</v>
       </c>
@@ -5078,7 +5214,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>167</v>
       </c>
@@ -5092,7 +5228,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>172</v>
       </c>
@@ -5106,7 +5242,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>174</v>
       </c>
@@ -5120,7 +5256,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>174</v>
       </c>
@@ -5134,7 +5270,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>174</v>
       </c>
@@ -5148,7 +5284,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>174</v>
       </c>
@@ -5162,7 +5298,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>174</v>
       </c>
@@ -5176,7 +5312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>174</v>
       </c>
@@ -5190,7 +5326,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>174</v>
       </c>
@@ -5204,7 +5340,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>174</v>
       </c>
@@ -5218,7 +5354,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>174</v>
       </c>
@@ -5232,7 +5368,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>174</v>
       </c>
@@ -5246,7 +5382,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>184</v>
       </c>
@@ -5260,7 +5396,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>184</v>
       </c>
@@ -5274,7 +5410,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>184</v>
       </c>
@@ -5288,7 +5424,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>188</v>
       </c>
@@ -5302,7 +5438,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>188</v>
       </c>
@@ -5316,7 +5452,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>191</v>
       </c>
@@ -5330,7 +5466,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>193</v>
       </c>
@@ -5344,7 +5480,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>195</v>
       </c>
@@ -5358,7 +5494,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>195</v>
       </c>
@@ -5372,7 +5508,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>197</v>
       </c>
@@ -5386,7 +5522,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>199</v>
       </c>
@@ -5400,7 +5536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>199</v>
       </c>
@@ -5414,7 +5550,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>199</v>
       </c>
@@ -5428,7 +5564,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>199</v>
       </c>
@@ -5442,7 +5578,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>199</v>
       </c>
@@ -5456,7 +5592,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>199</v>
       </c>
@@ -5470,7 +5606,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>199</v>
       </c>
@@ -5484,7 +5620,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>199</v>
       </c>
@@ -5498,7 +5634,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>199</v>
       </c>
@@ -5512,7 +5648,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>208</v>
       </c>
@@ -5526,7 +5662,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>118</v>
       </c>
@@ -5540,7 +5676,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>118</v>
       </c>
@@ -5554,7 +5690,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>212</v>
       </c>
@@ -5568,7 +5704,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>214</v>
       </c>
@@ -5582,7 +5718,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>216</v>
       </c>
@@ -5596,7 +5732,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>216</v>
       </c>
@@ -5610,7 +5746,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>218</v>
       </c>
@@ -5624,7 +5760,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>220</v>
       </c>
@@ -5638,7 +5774,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>222</v>
       </c>
@@ -5652,7 +5788,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>223</v>
       </c>
@@ -5666,7 +5802,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>223</v>
       </c>
@@ -5680,7 +5816,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>226</v>
       </c>
@@ -5694,7 +5830,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>226</v>
       </c>
@@ -5708,7 +5844,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>229</v>
       </c>
@@ -5722,7 +5858,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>231</v>
       </c>
@@ -5736,7 +5872,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>231</v>
       </c>
@@ -5750,7 +5886,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>231</v>
       </c>
@@ -5764,7 +5900,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>235</v>
       </c>
@@ -5778,7 +5914,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>237</v>
       </c>
@@ -5792,7 +5928,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>237</v>
       </c>
@@ -5806,7 +5942,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>237</v>
       </c>
@@ -5820,7 +5956,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>237</v>
       </c>
@@ -5834,7 +5970,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>237</v>
       </c>
@@ -5848,7 +5984,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>242</v>
       </c>
@@ -5862,7 +5998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>243</v>
       </c>
@@ -5876,7 +6012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>244</v>
       </c>
@@ -5890,7 +6026,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>246</v>
       </c>
@@ -5904,7 +6040,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>246</v>
       </c>
@@ -5918,7 +6054,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>249</v>
       </c>
@@ -5932,7 +6068,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>251</v>
       </c>
@@ -5946,7 +6082,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>251</v>
       </c>
@@ -5960,7 +6096,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>251</v>
       </c>
@@ -5974,7 +6110,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>251</v>
       </c>
@@ -5988,7 +6124,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>251</v>
       </c>
@@ -6002,7 +6138,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>251</v>
       </c>
@@ -6016,7 +6152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>158</v>
       </c>
@@ -6030,7 +6166,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>158</v>
       </c>
@@ -6044,7 +6180,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>158</v>
       </c>
@@ -6058,7 +6194,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>158</v>
       </c>
@@ -6072,7 +6208,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>158</v>
       </c>
@@ -6086,7 +6222,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>158</v>
       </c>
@@ -6100,7 +6236,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>158</v>
       </c>
@@ -6114,7 +6250,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>158</v>
       </c>
@@ -6128,7 +6264,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>158</v>
       </c>
@@ -6142,7 +6278,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>158</v>
       </c>
@@ -6156,7 +6292,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>265</v>
       </c>
@@ -6170,7 +6306,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>265</v>
       </c>
@@ -6184,7 +6320,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>266</v>
       </c>
@@ -6198,7 +6334,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>268</v>
       </c>
@@ -6212,7 +6348,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>270</v>
       </c>
@@ -6226,7 +6362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>271</v>
       </c>
@@ -6240,7 +6376,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>271</v>
       </c>
@@ -6254,7 +6390,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>271</v>
       </c>
@@ -6268,7 +6404,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>274</v>
       </c>
@@ -6282,7 +6418,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>275</v>
       </c>
@@ -6296,7 +6432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>275</v>
       </c>
@@ -6310,7 +6446,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>275</v>
       </c>
@@ -6324,7 +6460,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>275</v>
       </c>
@@ -6338,7 +6474,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>275</v>
       </c>
@@ -6352,7 +6488,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>275</v>
       </c>
@@ -6366,7 +6502,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>275</v>
       </c>
@@ -6380,7 +6516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>275</v>
       </c>
@@ -6394,7 +6530,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>275</v>
       </c>
@@ -6408,7 +6544,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>275</v>
       </c>
@@ -6422,7 +6558,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>275</v>
       </c>
@@ -6436,7 +6572,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>275</v>
       </c>
@@ -6450,7 +6586,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>275</v>
       </c>
@@ -6464,7 +6600,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>275</v>
       </c>
@@ -6478,7 +6614,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>275</v>
       </c>
@@ -6492,7 +6628,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>275</v>
       </c>
@@ -6506,7 +6642,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>275</v>
       </c>
@@ -6520,7 +6656,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>275</v>
       </c>
@@ -6534,7 +6670,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>275</v>
       </c>
@@ -6548,7 +6684,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>275</v>
       </c>
@@ -6562,7 +6698,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>275</v>
       </c>
@@ -6576,7 +6712,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>294</v>
       </c>
@@ -6590,7 +6726,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>275</v>
       </c>
@@ -6604,7 +6740,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>275</v>
       </c>
@@ -6618,7 +6754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>275</v>
       </c>
@@ -6632,7 +6768,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>275</v>
       </c>
@@ -6646,7 +6782,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>275</v>
       </c>
@@ -6660,7 +6796,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>275</v>
       </c>
@@ -6674,7 +6810,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>275</v>
       </c>
@@ -6688,7 +6824,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>275</v>
       </c>
@@ -6702,7 +6838,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>275</v>
       </c>
@@ -6716,7 +6852,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>275</v>
       </c>
@@ -6730,7 +6866,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>275</v>
       </c>
@@ -6744,7 +6880,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>275</v>
       </c>
@@ -6758,7 +6894,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>275</v>
       </c>
@@ -6772,7 +6908,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>275</v>
       </c>
@@ -6786,7 +6922,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>275</v>
       </c>
@@ -6800,7 +6936,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>275</v>
       </c>
@@ -6814,7 +6950,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>275</v>
       </c>
@@ -6828,7 +6964,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>275</v>
       </c>
@@ -6842,7 +6978,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>275</v>
       </c>
@@ -6856,7 +6992,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>310</v>
       </c>
@@ -6870,7 +7006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>310</v>
       </c>
@@ -6884,7 +7020,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>312</v>
       </c>
@@ -6898,7 +7034,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>314</v>
       </c>
@@ -6912,7 +7048,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>314</v>
       </c>
@@ -6926,7 +7062,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>314</v>
       </c>
@@ -6940,7 +7076,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>314</v>
       </c>
@@ -6954,7 +7090,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>314</v>
       </c>
@@ -6968,7 +7104,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>321</v>
       </c>
@@ -6982,7 +7118,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>323</v>
       </c>
@@ -6996,7 +7132,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>324</v>
       </c>
@@ -7010,7 +7146,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>326</v>
       </c>
@@ -7024,7 +7160,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>327</v>
       </c>
@@ -7038,7 +7174,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>329</v>
       </c>
@@ -7052,7 +7188,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>329</v>
       </c>
@@ -7066,7 +7202,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>329</v>
       </c>
@@ -7080,7 +7216,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>329</v>
       </c>
@@ -7094,7 +7230,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>329</v>
       </c>
@@ -7108,7 +7244,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>329</v>
       </c>
@@ -7122,7 +7258,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>329</v>
       </c>
@@ -7136,7 +7272,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>329</v>
       </c>
@@ -7150,7 +7286,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>329</v>
       </c>
@@ -7161,10 +7297,10 @@
         <v>329</v>
       </c>
       <c r="D258" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>329</v>
       </c>
@@ -7178,7 +7314,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>329</v>
       </c>
@@ -7192,7 +7328,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>329</v>
       </c>
@@ -7206,7 +7342,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>329</v>
       </c>
@@ -7220,7 +7356,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>329</v>
       </c>
@@ -7234,7 +7370,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>329</v>
       </c>
@@ -7248,7 +7384,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>329</v>
       </c>
@@ -7262,7 +7398,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>329</v>
       </c>
@@ -7276,7 +7412,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>329</v>
       </c>
@@ -7290,7 +7426,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>329</v>
       </c>
@@ -7304,7 +7440,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>329</v>
       </c>
@@ -7318,7 +7454,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>329</v>
       </c>
@@ -7332,7 +7468,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>329</v>
       </c>
@@ -7346,7 +7482,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>351</v>
       </c>
@@ -7360,7 +7496,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>353</v>
       </c>
@@ -7374,7 +7510,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>354</v>
       </c>
@@ -7388,7 +7524,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>355</v>
       </c>
@@ -7402,7 +7538,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>357</v>
       </c>
@@ -7416,7 +7552,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>359</v>
       </c>
@@ -7430,7 +7566,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>359</v>
       </c>
@@ -7444,7 +7580,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>360</v>
       </c>
@@ -7458,7 +7594,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>362</v>
       </c>
@@ -7472,7 +7608,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>364</v>
       </c>
@@ -7486,7 +7622,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>366</v>
       </c>
@@ -7500,7 +7636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>366</v>
       </c>
@@ -7514,7 +7650,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>366</v>
       </c>
@@ -7528,7 +7664,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>366</v>
       </c>
@@ -7542,7 +7678,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>371</v>
       </c>
@@ -7556,7 +7692,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>373</v>
       </c>
@@ -7570,7 +7706,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>375</v>
       </c>
@@ -7584,7 +7720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>377</v>
       </c>
@@ -7598,7 +7734,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>377</v>
       </c>
@@ -7612,7 +7748,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>377</v>
       </c>
@@ -7626,7 +7762,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>377</v>
       </c>
@@ -7640,7 +7776,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>377</v>
       </c>
@@ -7654,7 +7790,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>377</v>
       </c>
@@ -7668,7 +7804,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>377</v>
       </c>
@@ -7682,7 +7818,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>385</v>
       </c>
@@ -7696,7 +7832,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>385</v>
       </c>
@@ -7710,7 +7846,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>388</v>
       </c>
@@ -7724,7 +7860,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>390</v>
       </c>
@@ -7738,7 +7874,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>390</v>
       </c>
@@ -7752,7 +7888,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>393</v>
       </c>
@@ -7766,7 +7902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>394</v>
       </c>
@@ -7780,7 +7916,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>396</v>
       </c>
@@ -7794,7 +7930,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>398</v>
       </c>
@@ -7808,7 +7944,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>398</v>
       </c>
@@ -7822,7 +7958,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>398</v>
       </c>
@@ -7836,7 +7972,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>398</v>
       </c>
@@ -7850,7 +7986,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>404</v>
       </c>
@@ -7864,7 +8000,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>406</v>
       </c>
@@ -7878,7 +8014,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>406</v>
       </c>
@@ -7892,7 +8028,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>406</v>
       </c>
@@ -7906,7 +8042,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>406</v>
       </c>
@@ -7920,7 +8056,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>406</v>
       </c>
@@ -7934,7 +8070,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>406</v>
       </c>
@@ -7948,7 +8084,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>412</v>
       </c>
@@ -7962,7 +8098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>412</v>
       </c>
@@ -7976,7 +8112,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>412</v>
       </c>
@@ -7990,7 +8126,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>412</v>
       </c>
@@ -8004,7 +8140,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>412</v>
       </c>
@@ -8018,7 +8154,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>419</v>
       </c>
@@ -8032,7 +8168,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>421</v>
       </c>
@@ -8046,7 +8182,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>422</v>
       </c>
@@ -8060,7 +8196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>422</v>
       </c>
@@ -8074,7 +8210,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>425</v>
       </c>
@@ -8088,7 +8224,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>427</v>
       </c>
@@ -8102,7 +8238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>427</v>
       </c>
@@ -8116,7 +8252,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>210</v>
       </c>
@@ -8130,7 +8266,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>210</v>
       </c>
@@ -8144,7 +8280,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>210</v>
       </c>
@@ -8158,7 +8294,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>431</v>
       </c>
@@ -8172,7 +8308,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>432</v>
       </c>
@@ -8186,7 +8322,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>127</v>
       </c>
@@ -8200,7 +8336,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>127</v>
       </c>
@@ -8214,7 +8350,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>127</v>
       </c>
@@ -8228,7 +8364,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>127</v>
       </c>
@@ -8242,7 +8378,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>127</v>
       </c>
@@ -8256,7 +8392,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>127</v>
       </c>
@@ -8270,7 +8406,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>127</v>
       </c>
@@ -8284,7 +8420,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>127</v>
       </c>
@@ -8298,7 +8434,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>440</v>
       </c>
@@ -8312,7 +8448,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>441</v>
       </c>
@@ -8326,7 +8462,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>443</v>
       </c>
@@ -8340,7 +8476,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>443</v>
       </c>
@@ -8354,7 +8490,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>443</v>
       </c>
@@ -8368,7 +8504,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>443</v>
       </c>
@@ -8382,7 +8518,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>448</v>
       </c>
@@ -8396,7 +8532,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>448</v>
       </c>
@@ -8410,7 +8546,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>448</v>
       </c>
@@ -8424,7 +8560,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>452</v>
       </c>
@@ -8438,7 +8574,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>454</v>
       </c>
@@ -8452,7 +8588,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>454</v>
       </c>
@@ -8466,7 +8602,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>454</v>
       </c>
@@ -8480,7 +8616,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>454</v>
       </c>
@@ -8494,7 +8630,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>460</v>
       </c>
@@ -8508,7 +8644,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>462</v>
       </c>
@@ -8522,7 +8658,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>462</v>
       </c>
@@ -8536,7 +8672,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>464</v>
       </c>
@@ -8550,7 +8686,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>466</v>
       </c>
@@ -8564,7 +8700,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>466</v>
       </c>
@@ -8578,7 +8714,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>466</v>
       </c>
@@ -8592,7 +8728,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>466</v>
       </c>
@@ -8606,7 +8742,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>466</v>
       </c>
@@ -8620,7 +8756,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>469</v>
       </c>
@@ -8634,7 +8770,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>469</v>
       </c>
@@ -8648,7 +8784,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>472</v>
       </c>
@@ -8662,7 +8798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>473</v>
       </c>
@@ -8676,7 +8812,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>473</v>
       </c>
@@ -8690,7 +8826,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>473</v>
       </c>
@@ -8704,7 +8840,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>477</v>
       </c>
@@ -8718,7 +8854,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>479</v>
       </c>
@@ -8732,7 +8868,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>481</v>
       </c>
@@ -8746,7 +8882,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>483</v>
       </c>
@@ -8760,7 +8896,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>485</v>
       </c>
@@ -8774,7 +8910,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>485</v>
       </c>
@@ -8788,7 +8924,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>485</v>
       </c>
@@ -8802,7 +8938,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>489</v>
       </c>
@@ -8816,7 +8952,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>492</v>
       </c>
@@ -8830,7 +8966,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>492</v>
       </c>
@@ -8844,7 +8980,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>492</v>
       </c>
@@ -8858,7 +8994,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>492</v>
       </c>
@@ -8872,7 +9008,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>15</v>
       </c>
@@ -8886,7 +9022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>15</v>
       </c>
@@ -8900,7 +9036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>496</v>
       </c>
@@ -8914,7 +9050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>497</v>
       </c>
@@ -8928,7 +9064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>498</v>
       </c>
@@ -8942,7 +9078,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>500</v>
       </c>
@@ -8956,7 +9092,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>502</v>
       </c>
@@ -8970,7 +9106,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>502</v>
       </c>
@@ -8984,7 +9120,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>505</v>
       </c>
@@ -8998,7 +9134,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>505</v>
       </c>
@@ -9012,7 +9148,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>505</v>
       </c>
@@ -9026,7 +9162,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>505</v>
       </c>
@@ -9040,7 +9176,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>505</v>
       </c>
@@ -9054,7 +9190,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>505</v>
       </c>
@@ -9068,7 +9204,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>505</v>
       </c>
@@ -9082,7 +9218,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>505</v>
       </c>
@@ -9096,7 +9232,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>505</v>
       </c>
@@ -9110,7 +9246,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>505</v>
       </c>
@@ -9124,7 +9260,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>505</v>
       </c>
@@ -9138,7 +9274,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>514</v>
       </c>
@@ -9152,7 +9288,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>514</v>
       </c>
@@ -9166,7 +9302,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>518</v>
       </c>
@@ -9180,7 +9316,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>519</v>
       </c>
@@ -9194,7 +9330,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>520</v>
       </c>
@@ -9208,7 +9344,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>522</v>
       </c>
@@ -9222,7 +9358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>523</v>
       </c>
@@ -9236,7 +9372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>523</v>
       </c>
@@ -9250,7 +9386,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>31</v>
       </c>
@@ -9264,7 +9400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>525</v>
       </c>
@@ -9278,7 +9414,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>527</v>
       </c>
@@ -9292,7 +9428,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>529</v>
       </c>
@@ -9306,7 +9442,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>531</v>
       </c>
@@ -9320,7 +9456,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>533</v>
       </c>
@@ -9334,7 +9470,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>533</v>
       </c>
@@ -9348,7 +9484,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>533</v>
       </c>
@@ -9362,7 +9498,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>536</v>
       </c>
@@ -9376,7 +9512,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>536</v>
       </c>
@@ -9390,7 +9526,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>538</v>
       </c>
@@ -9404,7 +9540,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>538</v>
       </c>
@@ -9418,7 +9554,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>538</v>
       </c>
@@ -9432,7 +9568,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>538</v>
       </c>
@@ -9446,7 +9582,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>538</v>
       </c>
@@ -9460,7 +9596,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>543</v>
       </c>
@@ -9474,7 +9610,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>543</v>
       </c>
@@ -9488,7 +9624,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>543</v>
       </c>
@@ -9502,7 +9638,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>543</v>
       </c>
@@ -9516,7 +9652,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>543</v>
       </c>
@@ -9530,7 +9666,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>543</v>
       </c>
@@ -9544,7 +9680,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>543</v>
       </c>
@@ -9558,7 +9694,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>543</v>
       </c>
@@ -9572,7 +9708,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>543</v>
       </c>
@@ -9586,7 +9722,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>554</v>
       </c>
@@ -9600,7 +9736,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>556</v>
       </c>
@@ -9614,7 +9750,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>556</v>
       </c>
@@ -9628,7 +9764,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>556</v>
       </c>
@@ -9642,7 +9778,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>556</v>
       </c>
@@ -9656,7 +9792,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>556</v>
       </c>
@@ -9670,7 +9806,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>556</v>
       </c>
@@ -9684,7 +9820,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>556</v>
       </c>
@@ -9698,7 +9834,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>556</v>
       </c>
@@ -9712,7 +9848,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>566</v>
       </c>
@@ -9726,7 +9862,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>568</v>
       </c>
@@ -9740,7 +9876,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>569</v>
       </c>
@@ -9754,7 +9890,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>569</v>
       </c>
@@ -9768,7 +9904,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>569</v>
       </c>
@@ -9782,7 +9918,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>574</v>
       </c>
@@ -9796,7 +9932,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>574</v>
       </c>
@@ -9810,7 +9946,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>574</v>
       </c>
@@ -9824,7 +9960,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>574</v>
       </c>
@@ -9838,7 +9974,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>574</v>
       </c>
@@ -9852,7 +9988,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>574</v>
       </c>
@@ -9866,7 +10002,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>579</v>
       </c>
@@ -9880,7 +10016,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>581</v>
       </c>
@@ -9894,7 +10030,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>583</v>
       </c>
@@ -9908,7 +10044,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>585</v>
       </c>
@@ -9922,7 +10058,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>588</v>
       </c>
@@ -9936,7 +10072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>587</v>
       </c>
@@ -9950,7 +10086,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>587</v>
       </c>
@@ -9964,7 +10100,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>587</v>
       </c>
@@ -9978,7 +10114,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>587</v>
       </c>
@@ -9992,7 +10128,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>593</v>
       </c>
@@ -10006,7 +10142,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>595</v>
       </c>
@@ -10020,7 +10156,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>597</v>
       </c>
@@ -10034,7 +10170,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>597</v>
       </c>
@@ -10048,7 +10184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>597</v>
       </c>
@@ -10062,7 +10198,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>597</v>
       </c>
@@ -10076,7 +10212,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>600</v>
       </c>
@@ -10090,7 +10226,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>600</v>
       </c>
@@ -10104,7 +10240,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>600</v>
       </c>
@@ -10118,7 +10254,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>604</v>
       </c>
@@ -10132,7 +10268,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>607</v>
       </c>
@@ -10146,7 +10282,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>606</v>
       </c>
@@ -10160,7 +10296,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>609</v>
       </c>
@@ -10174,7 +10310,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>609</v>
       </c>
@@ -10188,7 +10324,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>609</v>
       </c>
@@ -10202,7 +10338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>609</v>
       </c>
@@ -10216,7 +10352,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>609</v>
       </c>
@@ -10230,7 +10366,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>609</v>
       </c>
@@ -10244,7 +10380,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>614</v>
       </c>
@@ -10258,7 +10394,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>617</v>
       </c>
@@ -10272,7 +10408,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>619</v>
       </c>
@@ -10286,7 +10422,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>619</v>
       </c>
@@ -10300,7 +10436,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>416</v>
       </c>
@@ -10314,7 +10450,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>416</v>
       </c>
@@ -10328,7 +10464,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>416</v>
       </c>
@@ -10342,7 +10478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>416</v>
       </c>
@@ -10356,7 +10492,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>416</v>
       </c>
@@ -10370,7 +10506,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>416</v>
       </c>
@@ -10384,7 +10520,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>416</v>
       </c>
@@ -10398,7 +10534,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>416</v>
       </c>
@@ -10412,7 +10548,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>416</v>
       </c>
@@ -10426,7 +10562,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>416</v>
       </c>
@@ -10440,7 +10576,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>416</v>
       </c>
@@ -10454,7 +10590,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>631</v>
       </c>
@@ -10468,7 +10604,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>634</v>
       </c>
@@ -10482,7 +10618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>634</v>
       </c>
@@ -10496,7 +10632,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>634</v>
       </c>
@@ -10510,7 +10646,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>635</v>
       </c>
@@ -10524,7 +10660,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>635</v>
       </c>
@@ -10538,7 +10674,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>635</v>
       </c>
@@ -10552,7 +10688,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>635</v>
       </c>
@@ -10566,7 +10702,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>635</v>
       </c>
@@ -10580,7 +10716,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>639</v>
       </c>
@@ -10594,7 +10730,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>138</v>
       </c>
@@ -10608,7 +10744,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>642</v>
       </c>
@@ -10622,7 +10758,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>642</v>
       </c>
@@ -10636,7 +10772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>642</v>
       </c>
@@ -10650,7 +10786,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>642</v>
       </c>
@@ -10664,7 +10800,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>642</v>
       </c>
@@ -10678,7 +10814,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>642</v>
       </c>
@@ -10692,7 +10828,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>642</v>
       </c>
@@ -10706,7 +10842,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>648</v>
       </c>
@@ -10720,7 +10856,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>651</v>
       </c>
@@ -10734,7 +10870,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>651</v>
       </c>
@@ -10748,7 +10884,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>651</v>
       </c>
@@ -10762,7 +10898,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>653</v>
       </c>
@@ -10776,7 +10912,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>656</v>
       </c>
@@ -10790,7 +10926,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>657</v>
       </c>
@@ -10804,7 +10940,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>659</v>
       </c>
@@ -10818,7 +10954,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>659</v>
       </c>
@@ -10832,7 +10968,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>663</v>
       </c>
@@ -10846,7 +10982,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>655</v>
       </c>
@@ -10860,7 +10996,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>665</v>
       </c>
@@ -10874,7 +11010,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>666</v>
       </c>
@@ -10888,7 +11024,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>667</v>
       </c>
@@ -10902,7 +11038,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>670</v>
       </c>
@@ -10916,7 +11052,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>671</v>
       </c>
@@ -10930,7 +11066,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>673</v>
       </c>
@@ -10944,7 +11080,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>673</v>
       </c>
@@ -10958,7 +11094,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>673</v>
       </c>
@@ -10972,7 +11108,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>673</v>
       </c>
@@ -10986,7 +11122,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>678</v>
       </c>
@@ -11000,7 +11136,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>678</v>
       </c>
@@ -11014,7 +11150,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>678</v>
       </c>
@@ -11028,7 +11164,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>678</v>
       </c>
@@ -11042,7 +11178,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>678</v>
       </c>
@@ -11056,7 +11192,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>678</v>
       </c>
@@ -11070,7 +11206,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>678</v>
       </c>
@@ -11084,7 +11220,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>685</v>
       </c>
@@ -11098,7 +11234,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>685</v>
       </c>
@@ -11112,7 +11248,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>685</v>
       </c>
@@ -11126,7 +11262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>686</v>
       </c>
@@ -11140,7 +11276,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>687</v>
       </c>
@@ -11154,7 +11290,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>689</v>
       </c>
@@ -11168,7 +11304,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>690</v>
       </c>
@@ -11182,7 +11318,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>692</v>
       </c>
@@ -11196,7 +11332,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>694</v>
       </c>
@@ -11210,7 +11346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>695</v>
       </c>
@@ -11224,7 +11360,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>697</v>
       </c>
@@ -11238,7 +11374,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>699</v>
       </c>
@@ -11252,7 +11388,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>701</v>
       </c>
@@ -11266,7 +11402,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>701</v>
       </c>
@@ -11280,7 +11416,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>701</v>
       </c>
@@ -11294,7 +11430,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>705</v>
       </c>
@@ -11308,7 +11444,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>707</v>
       </c>
@@ -11322,7 +11458,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>707</v>
       </c>
@@ -11336,7 +11472,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>709</v>
       </c>
@@ -11350,7 +11486,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>709</v>
       </c>
@@ -11364,7 +11500,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>709</v>
       </c>
@@ -11378,7 +11514,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>709</v>
       </c>
@@ -11392,7 +11528,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>709</v>
       </c>
@@ -11406,7 +11542,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>709</v>
       </c>
@@ -11420,7 +11556,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>718</v>
       </c>
@@ -11434,7 +11570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>718</v>
       </c>
@@ -11448,7 +11584,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>718</v>
       </c>
@@ -11462,7 +11598,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>721</v>
       </c>
@@ -11476,7 +11612,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>723</v>
       </c>
@@ -11490,7 +11626,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>724</v>
       </c>
@@ -11504,7 +11640,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>726</v>
       </c>
@@ -11518,7 +11654,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>729</v>
       </c>
@@ -11532,7 +11668,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>730</v>
       </c>
@@ -11546,7 +11682,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>730</v>
       </c>
@@ -11560,7 +11696,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>730</v>
       </c>
@@ -11574,7 +11710,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>730</v>
       </c>
@@ -11588,7 +11724,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>733</v>
       </c>
@@ -11602,7 +11738,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>735</v>
       </c>
@@ -11616,7 +11752,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>739</v>
       </c>
@@ -11630,7 +11766,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>739</v>
       </c>
@@ -11644,7 +11780,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>739</v>
       </c>
@@ -11658,7 +11794,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>740</v>
       </c>
@@ -11672,7 +11808,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>740</v>
       </c>
@@ -11686,7 +11822,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>740</v>
       </c>
@@ -11700,7 +11836,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>740</v>
       </c>
@@ -11714,7 +11850,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>740</v>
       </c>
@@ -11728,7 +11864,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>740</v>
       </c>
@@ -11742,7 +11878,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>740</v>
       </c>
@@ -11756,7 +11892,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>740</v>
       </c>
@@ -11770,7 +11906,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>740</v>
       </c>
@@ -11784,7 +11920,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>740</v>
       </c>
@@ -11798,7 +11934,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>740</v>
       </c>
@@ -11812,7 +11948,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>740</v>
       </c>
@@ -11826,7 +11962,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>740</v>
       </c>
@@ -11840,7 +11976,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>740</v>
       </c>
@@ -11854,7 +11990,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>740</v>
       </c>
@@ -11868,7 +12004,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>740</v>
       </c>
@@ -11882,7 +12018,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>740</v>
       </c>
@@ -11896,7 +12032,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>740</v>
       </c>
@@ -11910,7 +12046,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>760</v>
       </c>
@@ -11924,7 +12060,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>760</v>
       </c>
@@ -11938,7 +12074,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>760</v>
       </c>
@@ -11952,7 +12088,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>760</v>
       </c>
@@ -11966,7 +12102,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>760</v>
       </c>
@@ -11980,7 +12116,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>760</v>
       </c>
@@ -11994,7 +12130,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>760</v>
       </c>
@@ -12008,7 +12144,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>760</v>
       </c>
@@ -12022,7 +12158,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>766</v>
       </c>
@@ -12036,7 +12172,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>768</v>
       </c>
@@ -12050,7 +12186,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>768</v>
       </c>
@@ -12064,7 +12200,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>768</v>
       </c>
@@ -12078,7 +12214,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>768</v>
       </c>
@@ -12092,7 +12228,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>768</v>
       </c>
@@ -12106,7 +12242,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>768</v>
       </c>
@@ -12120,7 +12256,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>768</v>
       </c>
@@ -12134,7 +12270,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>768</v>
       </c>
@@ -12148,7 +12284,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>768</v>
       </c>
@@ -12162,7 +12298,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>768</v>
       </c>
@@ -12176,7 +12312,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>768</v>
       </c>
@@ -12190,7 +12326,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>768</v>
       </c>
@@ -12204,7 +12340,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>781</v>
       </c>
@@ -12218,7 +12354,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>781</v>
       </c>
@@ -12232,7 +12368,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>781</v>
       </c>
@@ -12246,7 +12382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>784</v>
       </c>
@@ -12260,7 +12396,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>784</v>
       </c>
@@ -12274,7 +12410,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>578</v>
       </c>
@@ -12288,7 +12424,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>787</v>
       </c>
@@ -12302,7 +12438,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>405</v>
       </c>
@@ -12316,7 +12452,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>405</v>
       </c>
@@ -12330,7 +12466,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>788</v>
       </c>
@@ -12344,7 +12480,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>789</v>
       </c>
@@ -12358,7 +12494,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>793</v>
       </c>
@@ -12372,7 +12508,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>795</v>
       </c>
@@ -12386,7 +12522,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>797</v>
       </c>
@@ -12400,7 +12536,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>797</v>
       </c>
@@ -12414,7 +12550,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>798</v>
       </c>
@@ -12428,7 +12564,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>800</v>
       </c>
@@ -12442,7 +12578,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>800</v>
       </c>
@@ -12456,7 +12592,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>802</v>
       </c>
@@ -12470,7 +12606,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>456</v>
       </c>
@@ -12484,7 +12620,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>805</v>
       </c>
@@ -12498,7 +12634,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>805</v>
       </c>
@@ -12512,7 +12648,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>805</v>
       </c>
@@ -12526,7 +12662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>808</v>
       </c>
@@ -12540,7 +12676,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>808</v>
       </c>
@@ -12554,7 +12690,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>808</v>
       </c>
@@ -12568,7 +12704,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>808</v>
       </c>
@@ -12582,7 +12718,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>812</v>
       </c>
@@ -12596,7 +12732,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>813</v>
       </c>
@@ -12610,7 +12746,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>815</v>
       </c>
@@ -12624,7 +12760,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>815</v>
       </c>
@@ -12638,7 +12774,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>815</v>
       </c>
@@ -12652,7 +12788,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B651" t="s">
         <v>821</v>
       </c>
@@ -12663,7 +12799,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B652" t="s">
         <v>822</v>
       </c>
@@ -12674,7 +12810,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B653" t="s">
         <v>823</v>
       </c>
@@ -12685,7 +12821,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B654" t="s">
         <v>824</v>
       </c>
@@ -12696,7 +12832,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>199</v>
       </c>
@@ -12710,7 +12846,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>505</v>
       </c>
@@ -12724,7 +12860,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>874</v>
       </c>
@@ -12738,7 +12874,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>556</v>
       </c>
@@ -12752,7 +12888,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>830</v>
       </c>
@@ -12763,7 +12899,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>740</v>
       </c>
@@ -12777,7 +12913,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>740</v>
       </c>
@@ -12791,7 +12927,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>768</v>
       </c>
@@ -12805,7 +12941,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>768</v>
       </c>
@@ -12819,7 +12955,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>834</v>
       </c>
@@ -12833,7 +12969,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>834</v>
       </c>
@@ -12847,7 +12983,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>834</v>
       </c>
@@ -12861,7 +12997,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>834</v>
       </c>
@@ -12875,7 +13011,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>709</v>
       </c>
@@ -12889,7 +13025,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>329</v>
       </c>
@@ -12903,7 +13039,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>805</v>
       </c>
@@ -12917,7 +13053,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>875</v>
       </c>
@@ -12929,6 +13065,202 @@
       </c>
       <c r="D671" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="B672" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C672" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="D672" s="10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A673" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B673" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C673" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D673" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B674" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C674" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D674" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A675" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B675" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C675" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D675" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B676" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C676" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D676" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B677" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C677" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D677" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B678" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C678" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D678" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B679" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C679" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D679" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B680" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C680" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D680" s="9" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B681" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C681" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="D681" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B682" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C682" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D682" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A683" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B683" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C683" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D683" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B684" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C684" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D684" s="9" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B685" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C685" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D685" s="9" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -12938,204 +13270,204 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>820</v>
       </c>
@@ -13145,4 +13477,2858 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D11" s="9">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="D14" s="9">
+        <v>6</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="D15" s="9">
+        <v>6</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="D16" s="9">
+        <v>5</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="D17" s="9">
+        <v>6</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="D18" s="9">
+        <v>6</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="D19" s="9">
+        <v>5</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D20" s="9">
+        <v>5</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="D21" s="9">
+        <v>5</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="D22" s="9">
+        <v>5</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="D23" s="9">
+        <v>5</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="D24" s="9">
+        <v>6</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="D25" s="9">
+        <v>4</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D26" s="9">
+        <v>4</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D27" s="9">
+        <v>4</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D28" s="9">
+        <v>4</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D29" s="9">
+        <v>4</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="D30" s="9">
+        <v>4</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D36" s="9">
+        <v>2</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D39" s="9">
+        <v>2</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D45" s="9">
+        <v>4</v>
+      </c>
+      <c r="E45" s="9">
+        <v>2</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D46" s="9">
+        <v>4</v>
+      </c>
+      <c r="E46" s="9">
+        <v>2</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D47" s="9">
+        <v>4</v>
+      </c>
+      <c r="E47" s="9">
+        <v>2</v>
+      </c>
+      <c r="F47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D48" s="9">
+        <v>4</v>
+      </c>
+      <c r="E48" s="9">
+        <v>2</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D49" s="9">
+        <v>4</v>
+      </c>
+      <c r="E49" s="9">
+        <v>2</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D50" s="9">
+        <v>4</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="D51" s="9">
+        <v>5</v>
+      </c>
+      <c r="E51" s="9">
+        <v>2</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D53" s="9">
+        <v>5</v>
+      </c>
+      <c r="E53" s="9">
+        <v>1</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="D54" s="9">
+        <v>3</v>
+      </c>
+      <c r="E54" s="9">
+        <v>1</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D55" s="9">
+        <v>4</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="D56" s="9">
+        <v>4</v>
+      </c>
+      <c r="E56" s="9">
+        <v>1</v>
+      </c>
+      <c r="F56" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="D57" s="9">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9">
+        <v>2</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D58" s="9">
+        <v>5</v>
+      </c>
+      <c r="E58" s="9">
+        <v>1</v>
+      </c>
+      <c r="F58" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D59" s="9">
+        <v>5</v>
+      </c>
+      <c r="E59" s="9">
+        <v>1</v>
+      </c>
+      <c r="F59" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="D60" s="9">
+        <v>5</v>
+      </c>
+      <c r="E60" s="9">
+        <v>1</v>
+      </c>
+      <c r="F60" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="D61" s="9">
+        <v>5</v>
+      </c>
+      <c r="E61" s="9">
+        <v>1</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="D62" s="9">
+        <v>5</v>
+      </c>
+      <c r="E62" s="9">
+        <v>2</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="D63" s="9">
+        <v>5</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="D64" s="9">
+        <v>1</v>
+      </c>
+      <c r="E64" s="9">
+        <v>2</v>
+      </c>
+      <c r="F64" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="D65" s="9">
+        <v>5</v>
+      </c>
+      <c r="E65" s="9">
+        <v>1</v>
+      </c>
+      <c r="F65" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D66" s="9">
+        <v>3</v>
+      </c>
+      <c r="E66" s="9">
+        <v>1</v>
+      </c>
+      <c r="F66" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="D67" s="9">
+        <v>1</v>
+      </c>
+      <c r="E67" s="9">
+        <v>1</v>
+      </c>
+      <c r="F67" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="D68" s="9">
+        <v>5</v>
+      </c>
+      <c r="E68" s="9">
+        <v>1</v>
+      </c>
+      <c r="F68" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="D69" s="9">
+        <v>2</v>
+      </c>
+      <c r="E69" s="9">
+        <v>2</v>
+      </c>
+      <c r="F69" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D70" s="9">
+        <v>1</v>
+      </c>
+      <c r="E70" s="9">
+        <v>2</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D71" s="9">
+        <v>1</v>
+      </c>
+      <c r="E71" s="9">
+        <v>1</v>
+      </c>
+      <c r="F71" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D72" s="9">
+        <v>1</v>
+      </c>
+      <c r="E72" s="9">
+        <v>1</v>
+      </c>
+      <c r="F72" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D73" s="9">
+        <v>1</v>
+      </c>
+      <c r="E73" s="9">
+        <v>1</v>
+      </c>
+      <c r="F73" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D74" s="9">
+        <v>1</v>
+      </c>
+      <c r="E74" s="9">
+        <v>1</v>
+      </c>
+      <c r="F74" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D75" s="9">
+        <v>1</v>
+      </c>
+      <c r="E75" s="9">
+        <v>1</v>
+      </c>
+      <c r="F75" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="D76" s="9">
+        <v>3</v>
+      </c>
+      <c r="E76" s="9">
+        <v>1</v>
+      </c>
+      <c r="F76" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D77" s="9">
+        <v>1</v>
+      </c>
+      <c r="E77" s="9">
+        <v>2</v>
+      </c>
+      <c r="F77" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D78" s="9">
+        <v>1</v>
+      </c>
+      <c r="E78" s="9">
+        <v>1</v>
+      </c>
+      <c r="F78" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="D79" s="9">
+        <v>1</v>
+      </c>
+      <c r="E79" s="9">
+        <v>1</v>
+      </c>
+      <c r="F79" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="D80" s="9">
+        <v>5</v>
+      </c>
+      <c r="E80" s="9">
+        <v>1</v>
+      </c>
+      <c r="F80" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="D81" s="9">
+        <v>4</v>
+      </c>
+      <c r="E81" s="9">
+        <v>2</v>
+      </c>
+      <c r="F81" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D82" s="9">
+        <v>1</v>
+      </c>
+      <c r="E82" s="9">
+        <v>1</v>
+      </c>
+      <c r="F82" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D83" s="9">
+        <v>1</v>
+      </c>
+      <c r="E83" s="9">
+        <v>1</v>
+      </c>
+      <c r="F83" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D84" s="9">
+        <v>2</v>
+      </c>
+      <c r="E84" s="9">
+        <v>1</v>
+      </c>
+      <c r="F84" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="D85" s="9">
+        <v>4</v>
+      </c>
+      <c r="E85" s="9">
+        <v>1</v>
+      </c>
+      <c r="F85" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="D86" s="9">
+        <v>1</v>
+      </c>
+      <c r="E86" s="9">
+        <v>1</v>
+      </c>
+      <c r="F86" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="D87" s="9">
+        <v>1</v>
+      </c>
+      <c r="E87" s="9">
+        <v>2</v>
+      </c>
+      <c r="F87" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="D88" s="9">
+        <v>3</v>
+      </c>
+      <c r="E88" s="9">
+        <v>2</v>
+      </c>
+      <c r="F88" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D89" s="9">
+        <v>4</v>
+      </c>
+      <c r="E89" s="9">
+        <v>1</v>
+      </c>
+      <c r="F89" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D90" s="9">
+        <v>4</v>
+      </c>
+      <c r="E90" s="9">
+        <v>2</v>
+      </c>
+      <c r="F90" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D91" s="9">
+        <v>4</v>
+      </c>
+      <c r="E91" s="9">
+        <v>1</v>
+      </c>
+      <c r="F91" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D92" s="9">
+        <v>4</v>
+      </c>
+      <c r="E92" s="9">
+        <v>1</v>
+      </c>
+      <c r="F92" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D93" s="9">
+        <v>4</v>
+      </c>
+      <c r="E93" s="9">
+        <v>2</v>
+      </c>
+      <c r="F93" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D94" s="9">
+        <v>5</v>
+      </c>
+      <c r="E94" s="9">
+        <v>1</v>
+      </c>
+      <c r="F94" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="D95" s="9">
+        <v>5</v>
+      </c>
+      <c r="E95" s="9">
+        <v>1</v>
+      </c>
+      <c r="F95" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="D96" s="9">
+        <v>3</v>
+      </c>
+      <c r="E96" s="9">
+        <v>2</v>
+      </c>
+      <c r="F96" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="D97" s="9">
+        <v>5</v>
+      </c>
+      <c r="E97" s="9">
+        <v>1</v>
+      </c>
+      <c r="F97" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D98" s="9">
+        <v>5</v>
+      </c>
+      <c r="E98" s="9">
+        <v>1</v>
+      </c>
+      <c r="F98" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D99" s="9">
+        <v>5</v>
+      </c>
+      <c r="E99" s="9">
+        <v>1</v>
+      </c>
+      <c r="F99" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="D100" s="9">
+        <v>1</v>
+      </c>
+      <c r="E100" s="9">
+        <v>2</v>
+      </c>
+      <c r="F100" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="D101" s="9">
+        <v>2</v>
+      </c>
+      <c r="E101" s="9">
+        <v>1</v>
+      </c>
+      <c r="F101" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="D102" s="9">
+        <v>5</v>
+      </c>
+      <c r="E102" s="9">
+        <v>1</v>
+      </c>
+      <c r="F102" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D103" s="9">
+        <v>1</v>
+      </c>
+      <c r="E103" s="9">
+        <v>1</v>
+      </c>
+      <c r="F103" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="D104" s="9">
+        <v>4</v>
+      </c>
+      <c r="E104" s="9">
+        <v>2</v>
+      </c>
+      <c r="F104" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D105" s="9">
+        <v>5</v>
+      </c>
+      <c r="E105" s="9">
+        <v>1</v>
+      </c>
+      <c r="F105" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D106" s="9">
+        <v>4</v>
+      </c>
+      <c r="E106" s="9">
+        <v>2</v>
+      </c>
+      <c r="F106" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D107" s="9">
+        <v>4</v>
+      </c>
+      <c r="E107" s="9">
+        <v>2</v>
+      </c>
+      <c r="F107" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D108" s="9">
+        <v>4</v>
+      </c>
+      <c r="E108" s="9">
+        <v>2</v>
+      </c>
+      <c r="F108" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D109" s="9">
+        <v>4</v>
+      </c>
+      <c r="E109" s="9">
+        <v>2</v>
+      </c>
+      <c r="F109" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D110" s="9">
+        <v>4</v>
+      </c>
+      <c r="E110" s="9">
+        <v>2</v>
+      </c>
+      <c r="F110" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D111" s="9">
+        <v>4</v>
+      </c>
+      <c r="E111" s="9">
+        <v>2</v>
+      </c>
+      <c r="F111" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D112" s="9">
+        <v>4</v>
+      </c>
+      <c r="E112" s="9">
+        <v>2</v>
+      </c>
+      <c r="F112" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D113" s="9">
+        <v>4</v>
+      </c>
+      <c r="E113" s="9">
+        <v>2</v>
+      </c>
+      <c r="F113" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D114" s="9">
+        <v>4</v>
+      </c>
+      <c r="E114" s="9">
+        <v>2</v>
+      </c>
+      <c r="F114" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D115" s="9">
+        <v>4</v>
+      </c>
+      <c r="E115" s="9">
+        <v>2</v>
+      </c>
+      <c r="F115" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D116" s="9">
+        <v>4</v>
+      </c>
+      <c r="E116" s="9">
+        <v>2</v>
+      </c>
+      <c r="F116" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="D117" s="9">
+        <v>1</v>
+      </c>
+      <c r="E117" s="9">
+        <v>1</v>
+      </c>
+      <c r="F117" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="D118" s="9">
+        <v>1</v>
+      </c>
+      <c r="E118" s="9">
+        <v>1</v>
+      </c>
+      <c r="F118" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="D119" s="9">
+        <v>1</v>
+      </c>
+      <c r="E119" s="9">
+        <v>1</v>
+      </c>
+      <c r="F119" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="D120" s="9">
+        <v>5</v>
+      </c>
+      <c r="E120" s="9">
+        <v>1</v>
+      </c>
+      <c r="F120" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="D121" s="9">
+        <v>5</v>
+      </c>
+      <c r="E121" s="9">
+        <v>1</v>
+      </c>
+      <c r="F121" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="D122" s="9">
+        <v>1</v>
+      </c>
+      <c r="E122" s="9">
+        <v>2</v>
+      </c>
+      <c r="F122" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D123" s="9">
+        <v>1</v>
+      </c>
+      <c r="E123" s="9">
+        <v>1</v>
+      </c>
+      <c r="F123" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="D124" s="9">
+        <v>5</v>
+      </c>
+      <c r="E124" s="9">
+        <v>1</v>
+      </c>
+      <c r="F124" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="D125" s="9">
+        <v>1</v>
+      </c>
+      <c r="E125" s="9">
+        <v>1</v>
+      </c>
+      <c r="F125" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="D126" s="9">
+        <v>6</v>
+      </c>
+      <c r="E126" s="9">
+        <v>2</v>
+      </c>
+      <c r="F126" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="D127" s="9">
+        <v>1</v>
+      </c>
+      <c r="E127" s="9">
+        <v>1</v>
+      </c>
+      <c r="F127" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="D128" s="9">
+        <v>5</v>
+      </c>
+      <c r="E128" s="9">
+        <v>1</v>
+      </c>
+      <c r="F128" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="D129" s="9">
+        <v>6</v>
+      </c>
+      <c r="E129" s="9">
+        <v>2</v>
+      </c>
+      <c r="F129" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D130" s="9">
+        <v>1</v>
+      </c>
+      <c r="E130" s="9">
+        <v>2</v>
+      </c>
+      <c r="F130" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D131" s="9">
+        <v>5</v>
+      </c>
+      <c r="E131" s="9">
+        <v>1</v>
+      </c>
+      <c r="F131" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="D132" s="9">
+        <v>5</v>
+      </c>
+      <c r="E132" s="9">
+        <v>1</v>
+      </c>
+      <c r="F132" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="D133" s="9">
+        <v>1</v>
+      </c>
+      <c r="E133" s="9">
+        <v>1</v>
+      </c>
+      <c r="F133" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="D134" s="9">
+        <v>4</v>
+      </c>
+      <c r="E134" s="9">
+        <v>2</v>
+      </c>
+      <c r="F134" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="D135" s="9">
+        <v>5</v>
+      </c>
+      <c r="E135" s="9">
+        <v>2</v>
+      </c>
+      <c r="F135" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="D136" s="9">
+        <v>2</v>
+      </c>
+      <c r="E136" s="9">
+        <v>2</v>
+      </c>
+      <c r="F136" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D137" s="9">
+        <v>1</v>
+      </c>
+      <c r="E137" s="9">
+        <v>1</v>
+      </c>
+      <c r="F137" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D138" s="9">
+        <v>4</v>
+      </c>
+      <c r="E138" s="9">
+        <v>2</v>
+      </c>
+      <c r="F138" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D139" s="9">
+        <v>4</v>
+      </c>
+      <c r="E139" s="9">
+        <v>2</v>
+      </c>
+      <c r="F139" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D140" s="9">
+        <v>4</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="D141" s="9">
+        <v>1</v>
+      </c>
+      <c r="E141" s="9">
+        <v>2</v>
+      </c>
+      <c r="F141" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:I142">
+    <sortCondition ref="A2:A142"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/PreprocessedData/MasterSynonymCorrections.xlsx
+++ b/Data/PreprocessedData/MasterSynonymCorrections.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="19005" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="19005" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="MasterSynonymCorrections" sheetId="1" r:id="rId1"/>
@@ -3676,9 +3676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D685"/>
   <sheetViews>
-    <sheetView topLeftCell="A659" workbookViewId="0">
-      <selection activeCell="C659" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7451,7 +7449,7 @@
         <v>329</v>
       </c>
       <c r="D269" t="s">
-        <v>101</v>
+        <v>339</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -13483,7 +13481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+    <sheetView topLeftCell="A129" workbookViewId="0">
       <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
